--- a/data/cleaned/segment_october_2025 (1).xlsx
+++ b/data/cleaned/segment_october_2025 (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mithil/Desktop/rag star/data/cleaned/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41A5B8F-EAC9-1547-8F01-C41C967614BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEA4432-C63D-A14F-BB1B-BB8563D7E956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="780" windowWidth="29900" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4300" yWindow="780" windowWidth="29900" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Segmentwise Report" sheetId="1" r:id="rId1"/>
@@ -498,8 +498,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="J74" sqref="J1:J74"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -568,46 +568,46 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
+        <v>3158.4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>615.33000000000004</v>
+      </c>
+      <c r="D2" s="3">
+        <v>305.83</v>
+      </c>
+      <c r="E2" s="3">
+        <v>309.5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>683.39</v>
       </c>
       <c r="G2" s="3">
-        <v>633.47</v>
+        <v>5599.36</v>
       </c>
       <c r="H2" s="3">
-        <v>260.14999999999998</v>
+        <v>2090.86</v>
       </c>
       <c r="I2" s="3">
-        <v>373.32</v>
+        <v>3508.49</v>
       </c>
       <c r="J2" s="3">
-        <v>690.26</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
+        <v>13413.36</v>
+      </c>
+      <c r="K2" s="3">
+        <v>239.5</v>
       </c>
       <c r="L2" s="3">
-        <v>24.22</v>
+        <v>357.56</v>
       </c>
       <c r="M2" s="3">
-        <v>6.99</v>
+        <v>396.21</v>
       </c>
       <c r="N2" s="3">
-        <v>52.6</v>
+        <v>1190.23</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>48</v>
@@ -616,7 +616,7 @@
     <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f>A2</f>
-        <v>Acko General Insurance Ltd</v>
+        <v>The New India Assurance Co Ltd</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -663,46 +663,46 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1933.23</v>
-      </c>
-      <c r="C4" s="3">
-        <v>239.62</v>
-      </c>
-      <c r="D4" s="3">
-        <v>222.93</v>
-      </c>
-      <c r="E4" s="3">
-        <v>16.690000000000001</v>
-      </c>
-      <c r="F4" s="3">
-        <v>321.89</v>
-      </c>
-      <c r="G4" s="3">
-        <v>4204.1099999999997</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1928.83</v>
-      </c>
-      <c r="I4" s="3">
-        <v>2275.2800000000002</v>
+        <v>45</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>4362.67</v>
-      </c>
-      <c r="K4" s="3">
-        <v>9.4600000000000009</v>
-      </c>
-      <c r="L4" s="3">
-        <v>558.29999999999995</v>
+        <v>9376.09</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
       </c>
       <c r="M4" s="3">
-        <v>122.03</v>
+        <v>90.16</v>
       </c>
       <c r="N4" s="3">
-        <v>1713.17</v>
+        <v>0.03</v>
       </c>
       <c r="O4" s="5" t="s">
         <v>48</v>
@@ -711,7 +711,7 @@
     <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f>A4</f>
-        <v xml:space="preserve">Bajaj General Insurance Limited </v>
+        <v>Star Health &amp; Allied Insurance Co Ltd</v>
       </c>
       <c r="B5" s="3">
         <v>1761.97</v>
@@ -758,46 +758,46 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3">
-        <v>432.23</v>
+        <v>1038.19</v>
       </c>
       <c r="C6" s="3">
-        <v>106.72</v>
+        <v>175.97</v>
       </c>
       <c r="D6" s="3">
-        <v>89.2</v>
+        <v>76.05</v>
       </c>
       <c r="E6" s="3">
-        <v>17.52</v>
+        <v>99.92</v>
       </c>
       <c r="F6" s="3">
-        <v>25</v>
+        <v>288.37</v>
       </c>
       <c r="G6" s="3">
-        <v>3096.74</v>
+        <v>3022.45</v>
       </c>
       <c r="H6" s="3">
-        <v>1472.39</v>
+        <v>945.3</v>
       </c>
       <c r="I6" s="3">
-        <v>1624.34</v>
+        <v>2077.15</v>
       </c>
       <c r="J6" s="3">
-        <v>591.04</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
+        <v>5614.49</v>
+      </c>
+      <c r="K6" s="3">
+        <v>29.14</v>
       </c>
       <c r="L6" s="3">
-        <v>18.66</v>
+        <v>176.79</v>
       </c>
       <c r="M6" s="3">
-        <v>124.81</v>
+        <v>466.15</v>
       </c>
       <c r="N6" s="3">
-        <v>27.48</v>
+        <v>315.86</v>
       </c>
       <c r="O6" s="5" t="s">
         <v>48</v>
@@ -806,7 +806,7 @@
     <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f>A6</f>
-        <v>Cholamandalam MS General Insurance Co Ltd</v>
+        <v>National Insurance Co Ltd</v>
       </c>
       <c r="B7" s="3">
         <v>442.91</v>
@@ -853,46 +853,46 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3">
-        <v>475.74</v>
+        <v>1294.78</v>
       </c>
       <c r="C8" s="3">
-        <v>91.73</v>
+        <v>340.71</v>
       </c>
       <c r="D8" s="3">
-        <v>89.66</v>
+        <v>137.38</v>
       </c>
       <c r="E8" s="3">
-        <v>2.0699999999999998</v>
+        <v>203.33</v>
       </c>
       <c r="F8" s="3">
-        <v>60.85</v>
+        <v>267.89</v>
       </c>
       <c r="G8" s="3">
-        <v>1097.21</v>
+        <v>2410.0100000000002</v>
       </c>
       <c r="H8" s="3">
-        <v>515.32000000000005</v>
+        <v>767.53</v>
       </c>
       <c r="I8" s="3">
-        <v>581.89</v>
+        <v>1642.48</v>
       </c>
       <c r="J8" s="3">
-        <v>884.44</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
+        <v>5182.63</v>
+      </c>
+      <c r="K8" s="3">
+        <v>103.64</v>
       </c>
       <c r="L8" s="3">
-        <v>45.44</v>
+        <v>88.01</v>
       </c>
       <c r="M8" s="3">
-        <v>69.23</v>
+        <v>2813.74</v>
       </c>
       <c r="N8" s="3">
-        <v>285.77</v>
+        <v>281.26</v>
       </c>
       <c r="O8" s="5" t="s">
         <v>48</v>
@@ -901,7 +901,7 @@
     <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f>A8</f>
-        <v>Generali Central Insurance Company Limited</v>
+        <v>The Oriental Insurance Co Ltd</v>
       </c>
       <c r="B9" s="3">
         <v>356.87</v>
@@ -948,46 +948,46 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3">
-        <v>519.4</v>
-      </c>
-      <c r="C10" s="3">
-        <v>37.64</v>
-      </c>
-      <c r="D10" s="3">
-        <v>37.61</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="F10" s="3">
-        <v>106.59</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3868.62</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1481.18</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2387.44</v>
+        <v>41</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>841.65</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1.02</v>
-      </c>
-      <c r="L10" s="3">
-        <v>154.54</v>
+        <v>5066.1400000000003</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>215.58</v>
-      </c>
-      <c r="N10" s="3">
-        <v>140.81</v>
+        <v>126.8</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>48</v>
@@ -996,7 +996,7 @@
     <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f>A10</f>
-        <v>Go Digit General Insurance Ltd</v>
+        <v>Care Health Insurance Ltd</v>
       </c>
       <c r="B11" s="3">
         <v>346.75</v>
@@ -1043,46 +1043,46 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3">
-        <v>1357.84</v>
+        <v>2398.87</v>
       </c>
       <c r="C12" s="3">
-        <v>99.64</v>
+        <v>571.51</v>
       </c>
       <c r="D12" s="3">
-        <v>93.58</v>
+        <v>510.81</v>
       </c>
       <c r="E12" s="3">
-        <v>6.06</v>
+        <v>60.71</v>
       </c>
       <c r="F12" s="3">
-        <v>236.16</v>
+        <v>685.94</v>
       </c>
       <c r="G12" s="3">
-        <v>1502.29</v>
+        <v>6255.95</v>
       </c>
       <c r="H12" s="3">
-        <v>966.22</v>
+        <v>3220.5</v>
       </c>
       <c r="I12" s="3">
-        <v>536.07000000000005</v>
+        <v>3035.45</v>
       </c>
       <c r="J12" s="3">
-        <v>3377.15</v>
+        <v>4838.1899999999996</v>
       </c>
       <c r="K12" s="3">
-        <v>5.39</v>
+        <v>99.77</v>
       </c>
       <c r="L12" s="3">
-        <v>470.31</v>
+        <v>640.95000000000005</v>
       </c>
       <c r="M12" s="3">
-        <v>309.08999999999997</v>
+        <v>275.73</v>
       </c>
       <c r="N12" s="3">
-        <v>1257.8699999999999</v>
+        <v>1140.47</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>48</v>
@@ -1091,7 +1091,7 @@
     <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f>A12</f>
-        <v>HDFC Ergo General Insurance Co Ltd</v>
+        <v>ICICI Lombard General Insurance Co Ltd</v>
       </c>
       <c r="B13" s="3">
         <v>1319.25</v>
@@ -1138,46 +1138,46 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3">
-        <v>2398.87</v>
+        <v>1933.23</v>
       </c>
       <c r="C14" s="3">
-        <v>571.51</v>
+        <v>239.62</v>
       </c>
       <c r="D14" s="3">
-        <v>510.81</v>
+        <v>222.93</v>
       </c>
       <c r="E14" s="3">
-        <v>60.71</v>
+        <v>16.690000000000001</v>
       </c>
       <c r="F14" s="3">
-        <v>685.94</v>
+        <v>321.89</v>
       </c>
       <c r="G14" s="3">
-        <v>6255.95</v>
+        <v>4204.1099999999997</v>
       </c>
       <c r="H14" s="3">
-        <v>3220.5</v>
+        <v>1928.83</v>
       </c>
       <c r="I14" s="3">
-        <v>3035.45</v>
+        <v>2275.2800000000002</v>
       </c>
       <c r="J14" s="3">
-        <v>4838.1899999999996</v>
+        <v>4362.67</v>
       </c>
       <c r="K14" s="3">
-        <v>99.77</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="L14" s="3">
-        <v>640.95000000000005</v>
+        <v>558.29999999999995</v>
       </c>
       <c r="M14" s="3">
-        <v>275.73</v>
+        <v>122.03</v>
       </c>
       <c r="N14" s="3">
-        <v>1140.47</v>
+        <v>1713.17</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>48</v>
@@ -1186,7 +1186,7 @@
     <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f>A14</f>
-        <v>ICICI Lombard General Insurance Co Ltd</v>
+        <v xml:space="preserve">Bajaj General Insurance Limited </v>
       </c>
       <c r="B15" s="3">
         <v>2091.4899999999998</v>
@@ -1233,46 +1233,46 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B16" s="3">
-        <v>734.88</v>
+        <v>1390.1</v>
       </c>
       <c r="C16" s="3">
-        <v>231.6</v>
+        <v>256.64999999999998</v>
       </c>
       <c r="D16" s="3">
-        <v>216.49</v>
+        <v>119.04</v>
       </c>
       <c r="E16" s="3">
-        <v>15.11</v>
+        <v>137.61000000000001</v>
       </c>
       <c r="F16" s="3">
-        <v>207.15</v>
+        <v>301.33999999999997</v>
       </c>
       <c r="G16" s="3">
-        <v>2289.84</v>
+        <v>5376.49</v>
       </c>
       <c r="H16" s="3">
-        <v>1092.1099999999999</v>
+        <v>1162.3499999999999</v>
       </c>
       <c r="I16" s="3">
-        <v>1197.73</v>
+        <v>4214.1400000000003</v>
       </c>
       <c r="J16" s="3">
-        <v>543.69000000000005</v>
+        <v>4174.4799999999996</v>
       </c>
       <c r="K16" s="3">
-        <v>-7.0000000000000007E-2</v>
+        <v>17.72</v>
       </c>
       <c r="L16" s="3">
-        <v>208.71</v>
+        <v>178.42</v>
       </c>
       <c r="M16" s="3">
-        <v>69.44</v>
+        <v>478.34</v>
       </c>
       <c r="N16" s="3">
-        <v>910.45</v>
+        <v>351.82</v>
       </c>
       <c r="O16" s="5" t="s">
         <v>48</v>
@@ -1281,7 +1281,7 @@
     <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f>A16</f>
-        <v>IFFCO-Tokio General Insurance Co Ltd</v>
+        <v>United India Insurance Co Ltd</v>
       </c>
       <c r="B17" s="3">
         <v>609.91</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>0.03</v>
+        <v>4107.51</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -1363,11 +1363,11 @@
       <c r="L18" s="4">
         <v>0</v>
       </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>520.97</v>
+      <c r="M18" s="3">
+        <v>55.23</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
       </c>
       <c r="O18" s="5" t="s">
         <v>48</v>
@@ -1376,7 +1376,7 @@
     <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f>A18</f>
-        <v>Kshema General insurance</v>
+        <v xml:space="preserve"> Niva bupa health insurance company limited</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -1423,46 +1423,46 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>49.87</v>
+        <v>1357.84</v>
       </c>
       <c r="C20" s="3">
-        <v>12.46</v>
+        <v>99.64</v>
       </c>
       <c r="D20" s="3">
-        <v>12.46</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
+        <v>93.58</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6.06</v>
       </c>
       <c r="F20" s="3">
-        <v>25.3</v>
+        <v>236.16</v>
       </c>
       <c r="G20" s="3">
-        <v>1130.1400000000001</v>
+        <v>1502.29</v>
       </c>
       <c r="H20" s="3">
-        <v>601.39</v>
+        <v>966.22</v>
       </c>
       <c r="I20" s="3">
-        <v>528.75</v>
+        <v>536.07000000000005</v>
       </c>
       <c r="J20" s="3">
-        <v>329.15</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0</v>
+        <v>3377.15</v>
+      </c>
+      <c r="K20" s="3">
+        <v>5.39</v>
       </c>
       <c r="L20" s="3">
-        <v>30.57</v>
+        <v>470.31</v>
       </c>
       <c r="M20" s="3">
-        <v>11.22</v>
+        <v>309.08999999999997</v>
       </c>
       <c r="N20" s="3">
-        <v>41.08</v>
+        <v>1257.8699999999999</v>
       </c>
       <c r="O20" s="5" t="s">
         <v>48</v>
@@ -1471,7 +1471,7 @@
     <row r="21" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f>A20</f>
-        <v>Liberty  General Insurance Co. Ltd</v>
+        <v>HDFC Ergo General Insurance Co Ltd</v>
       </c>
       <c r="B21" s="3">
         <v>42.6</v>
@@ -1518,46 +1518,46 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="3">
-        <v>172.28</v>
-      </c>
-      <c r="C22" s="3">
-        <v>24.06</v>
-      </c>
-      <c r="D22" s="3">
-        <v>24.06</v>
+        <v>40</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <v>22.6</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1120.1099999999999</v>
-      </c>
-      <c r="H22" s="3">
-        <v>278.14999999999998</v>
-      </c>
-      <c r="I22" s="3">
-        <v>841.96</v>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>528.75</v>
+        <v>3090.94</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
       </c>
-      <c r="L22" s="3">
-        <v>62.71</v>
+      <c r="L22" s="4">
+        <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>28.5</v>
-      </c>
-      <c r="N22" s="3">
-        <v>14.49</v>
+        <v>165.83</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
       </c>
       <c r="O22" s="5" t="s">
         <v>48</v>
@@ -1566,7 +1566,7 @@
     <row r="23" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f>A22</f>
-        <v>Magma General Insurance Limited</v>
+        <v>Aditya Birla Health Insurance Co Ltd</v>
       </c>
       <c r="B23" s="3">
         <v>179.49</v>
@@ -1613,46 +1613,46 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B24" s="3">
-        <v>1038.19</v>
+        <v>1509.52</v>
       </c>
       <c r="C24" s="3">
-        <v>175.97</v>
+        <v>481.77</v>
       </c>
       <c r="D24" s="3">
-        <v>76.05</v>
+        <v>462.26</v>
       </c>
       <c r="E24" s="3">
-        <v>99.92</v>
+        <v>19.510000000000002</v>
       </c>
       <c r="F24" s="3">
-        <v>288.37</v>
+        <v>238.57</v>
       </c>
       <c r="G24" s="3">
-        <v>3022.45</v>
+        <v>5323.65</v>
       </c>
       <c r="H24" s="3">
-        <v>945.3</v>
+        <v>2511.84</v>
       </c>
       <c r="I24" s="3">
-        <v>2077.15</v>
+        <v>2811.81</v>
       </c>
       <c r="J24" s="3">
-        <v>5614.49</v>
+        <v>2363.8200000000002</v>
       </c>
       <c r="K24" s="3">
-        <v>29.14</v>
+        <v>110.3</v>
       </c>
       <c r="L24" s="3">
-        <v>176.79</v>
+        <v>549.91</v>
       </c>
       <c r="M24" s="3">
-        <v>466.15</v>
+        <v>134.81</v>
       </c>
       <c r="N24" s="3">
-        <v>315.86</v>
+        <v>963.13</v>
       </c>
       <c r="O24" s="5" t="s">
         <v>48</v>
@@ -1661,7 +1661,7 @@
     <row r="25" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f>A24</f>
-        <v>National Insurance Co Ltd</v>
+        <v>Tata AIG General Insurance Co Ltd</v>
       </c>
       <c r="B25" s="3">
         <v>736.15</v>
@@ -1708,46 +1708,46 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26" s="3">
-        <v>-0.4</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
+        <v>1093.1300000000001</v>
+      </c>
+      <c r="C26" s="3">
+        <v>63.22</v>
+      </c>
+      <c r="D26" s="3">
+        <v>63.22</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
       </c>
-      <c r="F26" s="4">
-        <v>0</v>
+      <c r="F26" s="3">
+        <v>115.12</v>
       </c>
       <c r="G26" s="3">
-        <v>0.79</v>
+        <v>2824.94</v>
       </c>
       <c r="H26" s="3">
-        <v>0.03</v>
+        <v>1295.49</v>
       </c>
       <c r="I26" s="3">
-        <v>0.76</v>
+        <v>1529.44</v>
       </c>
       <c r="J26" s="3">
-        <v>58.04</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
-      </c>
-      <c r="L26" s="4">
-        <v>0</v>
+        <v>1972.51</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="L26" s="3">
+        <v>80.42</v>
       </c>
       <c r="M26" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="N26" s="4">
-        <v>0</v>
+        <v>983.56</v>
+      </c>
+      <c r="N26" s="3">
+        <v>1243.67</v>
       </c>
       <c r="O26" s="5" t="s">
         <v>48</v>
@@ -1756,7 +1756,7 @@
     <row r="27" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f>A26</f>
-        <v>Navi General Insurance Co. Ltd</v>
+        <v>SBI General Insurance Co Ltd</v>
       </c>
       <c r="B27" s="3">
         <v>-0.39</v>
@@ -1803,46 +1803,46 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
-        <v>10.96</v>
+        <v>981.53</v>
       </c>
       <c r="C28" s="3">
-        <v>-0.09</v>
+        <v>109.71</v>
       </c>
       <c r="D28" s="3">
-        <v>-0.09</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0</v>
+        <v>96.68</v>
+      </c>
+      <c r="E28" s="3">
+        <v>13.02</v>
       </c>
       <c r="F28" s="3">
-        <v>0.67</v>
+        <v>285.77</v>
       </c>
       <c r="G28" s="3">
-        <v>58.16</v>
+        <v>2713.76</v>
       </c>
       <c r="H28" s="3">
-        <v>19.62</v>
+        <v>1332.21</v>
       </c>
       <c r="I28" s="3">
-        <v>38.54</v>
+        <v>1381.55</v>
       </c>
       <c r="J28" s="3">
-        <v>3.68</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
+        <v>1766.93</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1.1299999999999999</v>
       </c>
       <c r="L28" s="3">
-        <v>44.57</v>
+        <v>69.03</v>
       </c>
       <c r="M28" s="3">
-        <v>0.84</v>
+        <v>265.04000000000002</v>
       </c>
       <c r="N28" s="3">
-        <v>0.13</v>
+        <v>1781.26</v>
       </c>
       <c r="O28" s="5" t="s">
         <v>48</v>
@@ -1851,7 +1851,7 @@
     <row r="29" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f>A28</f>
-        <v>Raheja QBE General Insurance Co Ltd</v>
+        <v>Reliance General Insurance Co Ltd</v>
       </c>
       <c r="B29" s="3">
         <v>9.64</v>
@@ -1898,46 +1898,46 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3">
-        <v>981.53</v>
-      </c>
-      <c r="C30" s="3">
-        <v>109.71</v>
-      </c>
-      <c r="D30" s="3">
-        <v>96.68</v>
-      </c>
-      <c r="E30" s="3">
-        <v>13.02</v>
-      </c>
-      <c r="F30" s="3">
-        <v>285.77</v>
-      </c>
-      <c r="G30" s="3">
-        <v>2713.76</v>
-      </c>
-      <c r="H30" s="3">
-        <v>1332.21</v>
-      </c>
-      <c r="I30" s="3">
-        <v>1381.55</v>
+        <v>43</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
       </c>
       <c r="J30" s="3">
-        <v>1766.93</v>
-      </c>
-      <c r="K30" s="3">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="L30" s="3">
-        <v>69.03</v>
+        <v>1151.93</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
       </c>
       <c r="M30" s="3">
-        <v>265.04000000000002</v>
-      </c>
-      <c r="N30" s="3">
-        <v>1781.26</v>
+        <v>25.56</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0</v>
       </c>
       <c r="O30" s="5" t="s">
         <v>48</v>
@@ -1946,7 +1946,7 @@
     <row r="31" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f>A30</f>
-        <v>Reliance General Insurance Co Ltd</v>
+        <v>ManipalCigna Health Insurance Co Ltd</v>
       </c>
       <c r="B31" s="3">
         <v>867.81</v>
@@ -1993,46 +1993,46 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3">
-        <v>259.31</v>
+        <v>211.51</v>
       </c>
       <c r="C32" s="3">
-        <v>46</v>
+        <v>41.46</v>
       </c>
       <c r="D32" s="3">
-        <v>45.95</v>
+        <v>25.54</v>
       </c>
       <c r="E32" s="3">
-        <v>0.05</v>
+        <v>15.93</v>
       </c>
       <c r="F32" s="3">
-        <v>47.85</v>
+        <v>9.34</v>
       </c>
       <c r="G32" s="3">
-        <v>1513.53</v>
+        <v>1833.83</v>
       </c>
       <c r="H32" s="3">
-        <v>511.26</v>
+        <v>816.86</v>
       </c>
       <c r="I32" s="3">
-        <v>1002.27</v>
+        <v>1016.97</v>
       </c>
       <c r="J32" s="3">
-        <v>594.99</v>
+        <v>893.05</v>
       </c>
       <c r="K32" s="4">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>16.940000000000001</v>
+        <v>16.11</v>
       </c>
       <c r="M32" s="3">
-        <v>42.84</v>
+        <v>94.44</v>
       </c>
       <c r="N32" s="3">
-        <v>13.33</v>
+        <v>293.08</v>
       </c>
       <c r="O32" s="5" t="s">
         <v>48</v>
@@ -2041,7 +2041,7 @@
     <row r="33" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f>A32</f>
-        <v>Royal Sundaram General Insurance Co Ltd</v>
+        <v>Universal Sompo General Insurance Co Ltd</v>
       </c>
       <c r="B33" s="3">
         <v>190.41</v>
@@ -2088,46 +2088,46 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B34" s="3">
-        <v>1093.1300000000001</v>
+        <v>475.74</v>
       </c>
       <c r="C34" s="3">
-        <v>63.22</v>
+        <v>91.73</v>
       </c>
       <c r="D34" s="3">
-        <v>63.22</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0</v>
+        <v>89.66</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2.0699999999999998</v>
       </c>
       <c r="F34" s="3">
-        <v>115.12</v>
+        <v>60.85</v>
       </c>
       <c r="G34" s="3">
-        <v>2824.94</v>
+        <v>1097.21</v>
       </c>
       <c r="H34" s="3">
-        <v>1295.49</v>
+        <v>515.32000000000005</v>
       </c>
       <c r="I34" s="3">
-        <v>1529.44</v>
+        <v>581.89</v>
       </c>
       <c r="J34" s="3">
-        <v>1972.51</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0.21</v>
+        <v>884.44</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
       </c>
       <c r="L34" s="3">
-        <v>80.42</v>
+        <v>45.44</v>
       </c>
       <c r="M34" s="3">
-        <v>983.56</v>
+        <v>69.23</v>
       </c>
       <c r="N34" s="3">
-        <v>1243.67</v>
+        <v>285.77</v>
       </c>
       <c r="O34" s="5" t="s">
         <v>48</v>
@@ -2136,7 +2136,7 @@
     <row r="35" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f>A34</f>
-        <v>SBI General Insurance Co Ltd</v>
+        <v>Generali Central Insurance Company Limited</v>
       </c>
       <c r="B35" s="3">
         <v>1017.78</v>
@@ -2183,46 +2183,46 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B36" s="3">
-        <v>70.36</v>
+        <v>519.4</v>
       </c>
       <c r="C36" s="3">
-        <v>2.7</v>
+        <v>37.64</v>
       </c>
       <c r="D36" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0</v>
+        <v>37.61</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.02</v>
       </c>
       <c r="F36" s="3">
-        <v>15.65</v>
+        <v>106.59</v>
       </c>
       <c r="G36" s="3">
-        <v>2268.14</v>
+        <v>3868.62</v>
       </c>
       <c r="H36" s="3">
-        <v>541.49</v>
+        <v>1481.18</v>
       </c>
       <c r="I36" s="3">
-        <v>1726.64</v>
+        <v>2387.44</v>
       </c>
       <c r="J36" s="3">
-        <v>6.66</v>
-      </c>
-      <c r="K36" s="4">
-        <v>0</v>
+        <v>841.65</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1.02</v>
       </c>
       <c r="L36" s="3">
-        <v>6.29</v>
+        <v>154.54</v>
       </c>
       <c r="M36" s="3">
-        <v>79.319999999999993</v>
+        <v>215.58</v>
       </c>
       <c r="N36" s="3">
-        <v>30.22</v>
+        <v>140.81</v>
       </c>
       <c r="O36" s="5" t="s">
         <v>48</v>
@@ -2231,7 +2231,7 @@
     <row r="37" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f>A36</f>
-        <v>Shriram General Insurance Co Ltd</v>
+        <v>Go Digit General Insurance Ltd</v>
       </c>
       <c r="B37" s="3">
         <v>60.78</v>
@@ -2278,46 +2278,46 @@
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B38" s="3">
-        <v>1509.52</v>
-      </c>
-      <c r="C38" s="3">
-        <v>481.77</v>
-      </c>
-      <c r="D38" s="3">
-        <v>462.26</v>
-      </c>
-      <c r="E38" s="3">
-        <v>19.510000000000002</v>
-      </c>
-      <c r="F38" s="3">
-        <v>238.57</v>
+        <v>0.01</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>5323.65</v>
+        <v>633.47</v>
       </c>
       <c r="H38" s="3">
-        <v>2511.84</v>
+        <v>260.14999999999998</v>
       </c>
       <c r="I38" s="3">
-        <v>2811.81</v>
+        <v>373.32</v>
       </c>
       <c r="J38" s="3">
-        <v>2363.8200000000002</v>
-      </c>
-      <c r="K38" s="3">
-        <v>110.3</v>
+        <v>690.26</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
       </c>
       <c r="L38" s="3">
-        <v>549.91</v>
+        <v>24.22</v>
       </c>
       <c r="M38" s="3">
-        <v>134.81</v>
+        <v>6.99</v>
       </c>
       <c r="N38" s="3">
-        <v>963.13</v>
+        <v>52.6</v>
       </c>
       <c r="O38" s="5" t="s">
         <v>48</v>
@@ -2326,7 +2326,7 @@
     <row r="39" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f>A38</f>
-        <v>Tata AIG General Insurance Co Ltd</v>
+        <v>Acko General Insurance Ltd</v>
       </c>
       <c r="B39" s="3">
         <v>1395.76</v>
@@ -2373,46 +2373,46 @@
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B40" s="3">
-        <v>3158.4</v>
+        <v>259.31</v>
       </c>
       <c r="C40" s="3">
-        <v>615.33000000000004</v>
+        <v>46</v>
       </c>
       <c r="D40" s="3">
-        <v>305.83</v>
+        <v>45.95</v>
       </c>
       <c r="E40" s="3">
-        <v>309.5</v>
+        <v>0.05</v>
       </c>
       <c r="F40" s="3">
-        <v>683.39</v>
+        <v>47.85</v>
       </c>
       <c r="G40" s="3">
-        <v>5599.36</v>
+        <v>1513.53</v>
       </c>
       <c r="H40" s="3">
-        <v>2090.86</v>
+        <v>511.26</v>
       </c>
       <c r="I40" s="3">
-        <v>3508.49</v>
+        <v>1002.27</v>
       </c>
       <c r="J40" s="3">
-        <v>13413.36</v>
-      </c>
-      <c r="K40" s="3">
-        <v>239.5</v>
+        <v>594.99</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
       </c>
       <c r="L40" s="3">
-        <v>357.56</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="M40" s="3">
-        <v>396.21</v>
+        <v>42.84</v>
       </c>
       <c r="N40" s="3">
-        <v>1190.23</v>
+        <v>13.33</v>
       </c>
       <c r="O40" s="5" t="s">
         <v>48</v>
@@ -2421,7 +2421,7 @@
     <row r="41" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f>A40</f>
-        <v>The New India Assurance Co Ltd</v>
+        <v>Royal Sundaram General Insurance Co Ltd</v>
       </c>
       <c r="B41" s="3">
         <v>2251.3000000000002</v>
@@ -2468,46 +2468,46 @@
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B42" s="3">
-        <v>1294.78</v>
+        <v>432.23</v>
       </c>
       <c r="C42" s="3">
-        <v>340.71</v>
+        <v>106.72</v>
       </c>
       <c r="D42" s="3">
-        <v>137.38</v>
+        <v>89.2</v>
       </c>
       <c r="E42" s="3">
-        <v>203.33</v>
+        <v>17.52</v>
       </c>
       <c r="F42" s="3">
-        <v>267.89</v>
+        <v>25</v>
       </c>
       <c r="G42" s="3">
-        <v>2410.0100000000002</v>
+        <v>3096.74</v>
       </c>
       <c r="H42" s="3">
-        <v>767.53</v>
+        <v>1472.39</v>
       </c>
       <c r="I42" s="3">
-        <v>1642.48</v>
+        <v>1624.34</v>
       </c>
       <c r="J42" s="3">
-        <v>5182.63</v>
-      </c>
-      <c r="K42" s="3">
-        <v>103.64</v>
+        <v>591.04</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>88.01</v>
+        <v>18.66</v>
       </c>
       <c r="M42" s="3">
-        <v>2813.74</v>
+        <v>124.81</v>
       </c>
       <c r="N42" s="3">
-        <v>281.26</v>
+        <v>27.48</v>
       </c>
       <c r="O42" s="5" t="s">
         <v>48</v>
@@ -2516,7 +2516,7 @@
     <row r="43" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f>A42</f>
-        <v>The Oriental Insurance Co Ltd</v>
+        <v>Cholamandalam MS General Insurance Co Ltd</v>
       </c>
       <c r="B43" s="3">
         <v>1046.1300000000001</v>
@@ -2563,46 +2563,46 @@
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B44" s="3">
-        <v>1390.1</v>
+        <v>734.88</v>
       </c>
       <c r="C44" s="3">
-        <v>256.64999999999998</v>
+        <v>231.6</v>
       </c>
       <c r="D44" s="3">
-        <v>119.04</v>
+        <v>216.49</v>
       </c>
       <c r="E44" s="3">
-        <v>137.61000000000001</v>
+        <v>15.11</v>
       </c>
       <c r="F44" s="3">
-        <v>301.33999999999997</v>
+        <v>207.15</v>
       </c>
       <c r="G44" s="3">
-        <v>5376.49</v>
+        <v>2289.84</v>
       </c>
       <c r="H44" s="3">
-        <v>1162.3499999999999</v>
+        <v>1092.1099999999999</v>
       </c>
       <c r="I44" s="3">
-        <v>4214.1400000000003</v>
+        <v>1197.73</v>
       </c>
       <c r="J44" s="3">
-        <v>4174.4799999999996</v>
+        <v>543.69000000000005</v>
       </c>
       <c r="K44" s="3">
-        <v>17.72</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="L44" s="3">
-        <v>178.42</v>
+        <v>208.71</v>
       </c>
       <c r="M44" s="3">
-        <v>478.34</v>
+        <v>69.44</v>
       </c>
       <c r="N44" s="3">
-        <v>351.82</v>
+        <v>910.45</v>
       </c>
       <c r="O44" s="5" t="s">
         <v>48</v>
@@ -2611,7 +2611,7 @@
     <row r="45" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f>A44</f>
-        <v>United India Insurance Co Ltd</v>
+        <v>IFFCO-Tokio General Insurance Co Ltd</v>
       </c>
       <c r="B45" s="3">
         <v>1095.22</v>
@@ -2658,46 +2658,46 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B46" s="3">
-        <v>211.51</v>
+        <v>172.28</v>
       </c>
       <c r="C46" s="3">
-        <v>41.46</v>
+        <v>24.06</v>
       </c>
       <c r="D46" s="3">
-        <v>25.54</v>
-      </c>
-      <c r="E46" s="3">
-        <v>15.93</v>
+        <v>24.06</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>9.34</v>
+        <v>22.6</v>
       </c>
       <c r="G46" s="3">
-        <v>1833.83</v>
+        <v>1120.1099999999999</v>
       </c>
       <c r="H46" s="3">
-        <v>816.86</v>
+        <v>278.14999999999998</v>
       </c>
       <c r="I46" s="3">
-        <v>1016.97</v>
+        <v>841.96</v>
       </c>
       <c r="J46" s="3">
-        <v>893.05</v>
+        <v>528.75</v>
       </c>
       <c r="K46" s="4">
         <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>16.11</v>
+        <v>62.71</v>
       </c>
       <c r="M46" s="3">
-        <v>94.44</v>
+        <v>28.5</v>
       </c>
       <c r="N46" s="3">
-        <v>293.08</v>
+        <v>14.49</v>
       </c>
       <c r="O46" s="5" t="s">
         <v>48</v>
@@ -2706,7 +2706,7 @@
     <row r="47" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f>A46</f>
-        <v>Universal Sompo General Insurance Co Ltd</v>
+        <v>Magma General Insurance Limited</v>
       </c>
       <c r="B47" s="3">
         <v>182.64</v>
@@ -2753,46 +2753,46 @@
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B48" s="3">
-        <v>40.32</v>
+        <v>104.97</v>
       </c>
       <c r="C48" s="3">
-        <v>1.07</v>
+        <v>16.16</v>
       </c>
       <c r="D48" s="3">
-        <v>1.07</v>
+        <v>16.16</v>
       </c>
       <c r="E48" s="4">
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>2.5299999999999998</v>
+        <v>15.93</v>
       </c>
       <c r="G48" s="3">
-        <v>320.2</v>
+        <v>529.04</v>
       </c>
       <c r="H48" s="3">
-        <v>153.99</v>
+        <v>283.64</v>
       </c>
       <c r="I48" s="3">
-        <v>166.21</v>
+        <v>245.41</v>
       </c>
       <c r="J48" s="3">
-        <v>220.27</v>
+        <v>461.38</v>
       </c>
       <c r="K48" s="4">
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>0.03</v>
+        <v>14.49</v>
       </c>
       <c r="M48" s="3">
-        <v>13.21</v>
+        <v>34.630000000000003</v>
       </c>
       <c r="N48" s="3">
-        <v>20.440000000000001</v>
+        <v>38.78</v>
       </c>
       <c r="O48" s="5" t="s">
         <v>48</v>
@@ -2801,7 +2801,7 @@
     <row r="49" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f>A48</f>
-        <v>Zuno General Insurance Co Ltd</v>
+        <v>Zurich Kotak Mahindra General Insurance Co Ltd</v>
       </c>
       <c r="B49" s="3">
         <v>32.79</v>
@@ -2848,46 +2848,46 @@
     </row>
     <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B50" s="3">
-        <v>104.97</v>
+        <v>49.87</v>
       </c>
       <c r="C50" s="3">
-        <v>16.16</v>
+        <v>12.46</v>
       </c>
       <c r="D50" s="3">
-        <v>16.16</v>
+        <v>12.46</v>
       </c>
       <c r="E50" s="4">
         <v>0</v>
       </c>
       <c r="F50" s="3">
-        <v>15.93</v>
+        <v>25.3</v>
       </c>
       <c r="G50" s="3">
-        <v>529.04</v>
+        <v>1130.1400000000001</v>
       </c>
       <c r="H50" s="3">
-        <v>283.64</v>
+        <v>601.39</v>
       </c>
       <c r="I50" s="3">
-        <v>245.41</v>
+        <v>528.75</v>
       </c>
       <c r="J50" s="3">
-        <v>461.38</v>
+        <v>329.15</v>
       </c>
       <c r="K50" s="4">
         <v>0</v>
       </c>
       <c r="L50" s="3">
-        <v>14.49</v>
+        <v>30.57</v>
       </c>
       <c r="M50" s="3">
-        <v>34.630000000000003</v>
+        <v>11.22</v>
       </c>
       <c r="N50" s="3">
-        <v>38.78</v>
+        <v>41.08</v>
       </c>
       <c r="O50" s="5" t="s">
         <v>48</v>
@@ -2896,7 +2896,7 @@
     <row r="51" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f>A50</f>
-        <v>Zurich Kotak Mahindra General Insurance Co Ltd</v>
+        <v>Liberty  General Insurance Co. Ltd</v>
       </c>
       <c r="B51" s="3">
         <v>52.75</v>
@@ -2943,46 +2943,46 @@
     </row>
     <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B52" s="4">
-        <v>0</v>
-      </c>
-      <c r="C52" s="4">
-        <v>0</v>
-      </c>
-      <c r="D52" s="4">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="B52" s="3">
+        <v>40.32</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1.07</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1.07</v>
       </c>
       <c r="E52" s="4">
         <v>0</v>
       </c>
-      <c r="F52" s="4">
-        <v>0</v>
-      </c>
-      <c r="G52" s="4">
-        <v>0</v>
-      </c>
-      <c r="H52" s="4">
-        <v>0</v>
-      </c>
-      <c r="I52" s="4">
-        <v>0</v>
+      <c r="F52" s="3">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="G52" s="3">
+        <v>320.2</v>
+      </c>
+      <c r="H52" s="3">
+        <v>153.99</v>
+      </c>
+      <c r="I52" s="3">
+        <v>166.21</v>
       </c>
       <c r="J52" s="3">
-        <v>4107.51</v>
+        <v>220.27</v>
       </c>
       <c r="K52" s="4">
         <v>0</v>
       </c>
-      <c r="L52" s="4">
-        <v>0</v>
+      <c r="L52" s="3">
+        <v>0.03</v>
       </c>
       <c r="M52" s="3">
-        <v>55.23</v>
-      </c>
-      <c r="N52" s="4">
-        <v>0</v>
+        <v>13.21</v>
+      </c>
+      <c r="N52" s="3">
+        <v>20.440000000000001</v>
       </c>
       <c r="O52" s="5" t="s">
         <v>48</v>
@@ -2991,7 +2991,7 @@
     <row r="53" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f>A52</f>
-        <v xml:space="preserve"> Niva bupa health insurance company limited</v>
+        <v>Zuno General Insurance Co Ltd</v>
       </c>
       <c r="B53" s="4">
         <v>0</v>
@@ -3038,10 +3038,10 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" s="4">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B54" s="3">
+        <v>-0.4</v>
       </c>
       <c r="C54" s="4">
         <v>0</v>
@@ -3055,17 +3055,17 @@
       <c r="F54" s="4">
         <v>0</v>
       </c>
-      <c r="G54" s="4">
-        <v>0</v>
-      </c>
-      <c r="H54" s="4">
-        <v>0</v>
-      </c>
-      <c r="I54" s="4">
-        <v>0</v>
+      <c r="G54" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.76</v>
       </c>
       <c r="J54" s="3">
-        <v>3090.94</v>
+        <v>58.04</v>
       </c>
       <c r="K54" s="4">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>165.83</v>
+        <v>2.7</v>
       </c>
       <c r="N54" s="4">
         <v>0</v>
@@ -3086,7 +3086,7 @@
     <row r="55" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f>A54</f>
-        <v>Aditya Birla Health Insurance Co Ltd</v>
+        <v>Navi General Insurance Co. Ltd</v>
       </c>
       <c r="B55" s="4">
         <v>0</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B56" s="4">
         <v>0</v>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="3">
-        <v>5066.1400000000003</v>
+        <v>47.8</v>
       </c>
       <c r="K56" s="4">
         <v>0</v>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="3">
-        <v>126.8</v>
+        <v>2.71</v>
       </c>
       <c r="N56" s="4">
         <v>0</v>
@@ -3181,7 +3181,7 @@
     <row r="57" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f>A56</f>
-        <v>Care Health Insurance Ltd</v>
+        <v>Galaxy Health Insurance Company Ltd</v>
       </c>
       <c r="B57" s="4">
         <v>0</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B58" s="4">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>47.8</v>
+        <v>10.35</v>
       </c>
       <c r="K58" s="4">
         <v>0</v>
@@ -3263,8 +3263,8 @@
       <c r="L58" s="4">
         <v>0</v>
       </c>
-      <c r="M58" s="3">
-        <v>2.71</v>
+      <c r="M58" s="4">
+        <v>0</v>
       </c>
       <c r="N58" s="4">
         <v>0</v>
@@ -3276,7 +3276,7 @@
     <row r="59" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f>A58</f>
-        <v>Galaxy Health Insurance Company Ltd</v>
+        <v>Narayana Health Insurance Ltd</v>
       </c>
       <c r="B59" s="4">
         <v>0</v>
@@ -3323,46 +3323,46 @@
     </row>
     <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B60" s="4">
-        <v>0</v>
-      </c>
-      <c r="C60" s="4">
-        <v>0</v>
-      </c>
-      <c r="D60" s="4">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="B60" s="3">
+        <v>70.36</v>
+      </c>
+      <c r="C60" s="3">
+        <v>2.7</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2.7</v>
       </c>
       <c r="E60" s="4">
         <v>0</v>
       </c>
-      <c r="F60" s="4">
-        <v>0</v>
-      </c>
-      <c r="G60" s="4">
-        <v>0</v>
-      </c>
-      <c r="H60" s="4">
-        <v>0</v>
-      </c>
-      <c r="I60" s="4">
-        <v>0</v>
+      <c r="F60" s="3">
+        <v>15.65</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2268.14</v>
+      </c>
+      <c r="H60" s="3">
+        <v>541.49</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1726.64</v>
       </c>
       <c r="J60" s="3">
-        <v>1151.93</v>
+        <v>6.66</v>
       </c>
       <c r="K60" s="4">
         <v>0</v>
       </c>
-      <c r="L60" s="4">
-        <v>0</v>
+      <c r="L60" s="3">
+        <v>6.29</v>
       </c>
       <c r="M60" s="3">
-        <v>25.56</v>
-      </c>
-      <c r="N60" s="4">
-        <v>0</v>
+        <v>79.319999999999993</v>
+      </c>
+      <c r="N60" s="3">
+        <v>30.22</v>
       </c>
       <c r="O60" s="5" t="s">
         <v>48</v>
@@ -3371,7 +3371,7 @@
     <row r="61" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f>A60</f>
-        <v>ManipalCigna Health Insurance Co Ltd</v>
+        <v>Shriram General Insurance Co Ltd</v>
       </c>
       <c r="B61" s="4">
         <v>0</v>
@@ -3418,46 +3418,46 @@
     </row>
     <row r="62" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B62" s="4">
-        <v>0</v>
-      </c>
-      <c r="C62" s="4">
-        <v>0</v>
-      </c>
-      <c r="D62" s="4">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="B62" s="3">
+        <v>10.96</v>
+      </c>
+      <c r="C62" s="3">
+        <v>-0.09</v>
+      </c>
+      <c r="D62" s="3">
+        <v>-0.09</v>
       </c>
       <c r="E62" s="4">
         <v>0</v>
       </c>
-      <c r="F62" s="4">
-        <v>0</v>
-      </c>
-      <c r="G62" s="4">
-        <v>0</v>
-      </c>
-      <c r="H62" s="4">
-        <v>0</v>
-      </c>
-      <c r="I62" s="4">
-        <v>0</v>
+      <c r="F62" s="3">
+        <v>0.67</v>
+      </c>
+      <c r="G62" s="3">
+        <v>58.16</v>
+      </c>
+      <c r="H62" s="3">
+        <v>19.62</v>
+      </c>
+      <c r="I62" s="3">
+        <v>38.54</v>
       </c>
       <c r="J62" s="3">
-        <v>10.35</v>
+        <v>3.68</v>
       </c>
       <c r="K62" s="4">
         <v>0</v>
       </c>
-      <c r="L62" s="4">
-        <v>0</v>
-      </c>
-      <c r="M62" s="4">
-        <v>0</v>
-      </c>
-      <c r="N62" s="4">
-        <v>0</v>
+      <c r="L62" s="3">
+        <v>44.57</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0.13</v>
       </c>
       <c r="O62" s="5" t="s">
         <v>48</v>
@@ -3466,7 +3466,7 @@
     <row r="63" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f>A62</f>
-        <v>Narayana Health Insurance Ltd</v>
+        <v>Raheja QBE General Insurance Co Ltd</v>
       </c>
       <c r="B63" s="4">
         <v>0</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="64" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B64" s="4">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="3">
-        <v>9376.09</v>
+        <v>0.03</v>
       </c>
       <c r="K64" s="4">
         <v>0</v>
@@ -3548,11 +3548,11 @@
       <c r="L64" s="4">
         <v>0</v>
       </c>
-      <c r="M64" s="3">
-        <v>90.16</v>
+      <c r="M64" s="4">
+        <v>0</v>
       </c>
       <c r="N64" s="3">
-        <v>0.03</v>
+        <v>520.97</v>
       </c>
       <c r="O64" s="5" t="s">
         <v>48</v>
@@ -3561,7 +3561,7 @@
     <row r="65" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f>A64</f>
-        <v>Star Health &amp; Allied Insurance Co Ltd</v>
+        <v>Kshema General insurance</v>
       </c>
       <c r="B65" s="4">
         <v>0</v>
@@ -4734,6 +4734,9 @@
         <filter val="FY25 OCT"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O68">
+      <sortCondition descending="1" ref="J1:J69"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
